--- a/Logboek Eddie Sprietsma.xlsx
+++ b/Logboek Eddie Sprietsma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Gedaan:</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Eddie Sprietsma</t>
+  </si>
+  <si>
+    <t>Gewerkt aan de analyse en het maken van een NIAM Diagram</t>
+  </si>
+  <si>
+    <t>2 uur</t>
   </si>
 </sst>
 </file>
@@ -374,21 +380,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
@@ -723,7 +729,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -747,7 +753,7 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="22" thickTop="1" thickBot="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
@@ -757,10 +763,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -782,461 +788,467 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
+    <row r="4" spans="1:10" ht="18">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="19">
+        <v>40947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="18">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="18">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="18">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="18">
+      <c r="A9" s="12"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="18">
+      <c r="A10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="12"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="18">
+      <c r="A12" s="12"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="18">
+      <c r="A13" s="12"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="18">
+      <c r="A14" s="12"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="18">
+      <c r="A15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="A16" s="12"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="18">
+      <c r="A17" s="12"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="18">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="18">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="18">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="18">
+      <c r="A21" s="12"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="18">
+      <c r="A22" s="12"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="18">
+      <c r="A23" s="12"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="18">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="18">
+      <c r="A25" s="12"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="18">
+      <c r="A26" s="12"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="18">
+      <c r="A27" s="12"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="18">
+      <c r="A28" s="12"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="18">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="18">
+      <c r="A30" s="12"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="18">
+      <c r="A31" s="12"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" ht="18">
+      <c r="A32" s="12"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" ht="18">
+      <c r="A33" s="12"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" ht="18">
+      <c r="A34" s="12"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" ht="18">
+      <c r="A35" s="12"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" ht="18">
+      <c r="A36" s="12"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" ht="18">
+      <c r="A37" s="12"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="18">
-      <c r="A38" s="16"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="18">
-      <c r="A39" s="17"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" ht="16" thickBot="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="22"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" ht="18">
+      <c r="A40" s="12"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="19" thickBot="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:10" ht="16" thickTop="1"/>
   </sheetData>
